--- a/Filtered_By_Region/CARAGA/CARAGA_HEALTH.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_HEALTH.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z139"/>
+  <dimension ref="A1:AA139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +565,11 @@
           <t>Other Remarks</t>
         </is>
       </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -656,14 +662,11 @@
           <t>September 19, 2024</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
           <t>November 19, 2024</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr">
         <is>
           <t>J-R3 Construction and Supply</t>
@@ -746,7 +749,6 @@
           <t>March 11, 2025</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
         <is>
           <t>SCHOOL CLINIC 2024 - R XIII - AGUSAN DEL NORTE - 003</t>
@@ -859,14 +861,6 @@
       <c r="O4" t="n">
         <v>0.4</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr">
         <is>
           <t>March 11, 2025</t>
@@ -938,7 +932,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1037,7 +1030,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
           <t>-</t>
@@ -1056,7 +1048,6 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1233,7 +1224,6 @@
           <t>ETP BUILDERS</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1351,7 +1341,6 @@
           <t>ARDRAW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1469,7 +1458,6 @@
           <t>ARDRAW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1587,7 +1575,6 @@
           <t>ARDRAW CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1705,7 +1692,6 @@
           <t>ALLYDE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1823,7 +1809,6 @@
           <t>ALLYDE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1941,7 +1926,6 @@
           <t>ALLYDE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2059,7 +2043,6 @@
           <t>ALLYDE CONSTRUCTION</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2217,7 +2200,6 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
           <t>-</t>
@@ -2459,7 +2441,6 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
           <t>-</t>
@@ -2823,7 +2804,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
           <t>-</t>
@@ -2943,7 +2923,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
           <t>-</t>
@@ -3080,7 +3059,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3089,17 +3067,6 @@
       <c r="O23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3152,7 +3119,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3161,17 +3127,6 @@
       <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3224,7 +3179,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3233,17 +3187,6 @@
       <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3296,7 +3239,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3305,17 +3247,6 @@
       <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3368,7 +3299,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3377,17 +3307,6 @@
       <c r="O27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3440,7 +3359,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3449,17 +3367,6 @@
       <c r="O28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3512,7 +3419,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3521,17 +3427,6 @@
       <c r="O29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3584,7 +3479,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3593,17 +3487,6 @@
       <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3656,7 +3539,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3665,17 +3547,6 @@
       <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3728,7 +3599,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3737,17 +3607,6 @@
       <c r="O32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3800,7 +3659,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3809,17 +3667,6 @@
       <c r="O33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3872,7 +3719,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3881,17 +3727,6 @@
       <c r="O34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3944,7 +3779,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -3953,17 +3787,6 @@
       <c r="O35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4016,7 +3839,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4025,17 +3847,6 @@
       <c r="O36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4088,7 +3899,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4097,17 +3907,6 @@
       <c r="O37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -4160,7 +3959,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4169,17 +3967,6 @@
       <c r="O38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4232,7 +4019,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4241,17 +4027,6 @@
       <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -4304,7 +4079,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4313,17 +4087,6 @@
       <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4376,7 +4139,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4385,17 +4147,6 @@
       <c r="O41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4448,7 +4199,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4457,17 +4207,6 @@
       <c r="O42" t="n">
         <v>1</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4520,7 +4259,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4529,17 +4267,6 @@
       <c r="O43" t="n">
         <v>1</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4592,7 +4319,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4601,17 +4327,6 @@
       <c r="O44" t="n">
         <v>1</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4664,7 +4379,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4673,17 +4387,6 @@
       <c r="O45" t="n">
         <v>1</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4736,7 +4439,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4745,17 +4447,6 @@
       <c r="O46" t="n">
         <v>1</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4808,7 +4499,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4817,17 +4507,6 @@
       <c r="O47" t="n">
         <v>1</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4880,7 +4559,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4889,17 +4567,6 @@
       <c r="O48" t="n">
         <v>1</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4952,7 +4619,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -4961,17 +4627,6 @@
       <c r="O49" t="n">
         <v>1</v>
       </c>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -5024,7 +4679,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5033,17 +4687,6 @@
       <c r="O50" t="n">
         <v>1</v>
       </c>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -5096,7 +4739,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5105,17 +4747,6 @@
       <c r="O51" t="n">
         <v>1</v>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -5168,7 +4799,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5177,17 +4807,6 @@
       <c r="O52" t="n">
         <v>1</v>
       </c>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -5240,7 +4859,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5249,17 +4867,6 @@
       <c r="O53" t="n">
         <v>1</v>
       </c>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -5312,7 +4919,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5321,17 +4927,6 @@
       <c r="O54" t="n">
         <v>1</v>
       </c>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -5384,7 +4979,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5393,17 +4987,6 @@
       <c r="O55" t="n">
         <v>1</v>
       </c>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5456,7 +5039,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5465,17 +5047,6 @@
       <c r="O56" t="n">
         <v>1</v>
       </c>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5528,7 +5099,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5537,17 +5107,6 @@
       <c r="O57" t="n">
         <v>1</v>
       </c>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5600,7 +5159,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5609,17 +5167,6 @@
       <c r="O58" t="n">
         <v>1</v>
       </c>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5672,7 +5219,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5681,17 +5227,6 @@
       <c r="O59" t="n">
         <v>1</v>
       </c>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5744,7 +5279,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5753,17 +5287,6 @@
       <c r="O60" t="n">
         <v>1</v>
       </c>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5816,7 +5339,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5825,17 +5347,6 @@
       <c r="O61" t="n">
         <v>1</v>
       </c>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5888,7 +5399,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5897,17 +5407,6 @@
       <c r="O62" t="n">
         <v>1</v>
       </c>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5960,7 +5459,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -5969,17 +5467,6 @@
       <c r="O63" t="n">
         <v>1</v>
       </c>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -6032,7 +5519,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6041,17 +5527,6 @@
       <c r="O64" t="n">
         <v>1</v>
       </c>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -6104,7 +5579,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M65" t="inlineStr"/>
       <c r="N65" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6113,17 +5587,6 @@
       <c r="O65" t="n">
         <v>1</v>
       </c>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -6176,7 +5639,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6185,17 +5647,6 @@
       <c r="O66" t="n">
         <v>1</v>
       </c>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -6248,7 +5699,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6257,17 +5707,6 @@
       <c r="O67" t="n">
         <v>1</v>
       </c>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6320,7 +5759,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6329,17 +5767,6 @@
       <c r="O68" t="n">
         <v>1</v>
       </c>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6392,7 +5819,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6401,17 +5827,6 @@
       <c r="O69" t="n">
         <v>1</v>
       </c>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6464,7 +5879,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6473,17 +5887,6 @@
       <c r="O70" t="n">
         <v>1</v>
       </c>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6536,7 +5939,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6545,17 +5947,6 @@
       <c r="O71" t="n">
         <v>1</v>
       </c>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6608,7 +5999,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr"/>
       <c r="N72" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6617,17 +6007,6 @@
       <c r="O72" t="n">
         <v>1</v>
       </c>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6680,7 +6059,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr"/>
       <c r="N73" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6689,17 +6067,6 @@
       <c r="O73" t="n">
         <v>1</v>
       </c>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6752,7 +6119,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr"/>
       <c r="N74" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6761,17 +6127,6 @@
       <c r="O74" t="n">
         <v>1</v>
       </c>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-      <c r="Z74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6824,7 +6179,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6833,17 +6187,6 @@
       <c r="O75" t="n">
         <v>1</v>
       </c>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr"/>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-      <c r="Z75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6896,7 +6239,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr"/>
       <c r="N76" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6905,17 +6247,6 @@
       <c r="O76" t="n">
         <v>1</v>
       </c>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-      <c r="Z76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6968,7 +6299,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr"/>
       <c r="N77" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -6977,17 +6307,6 @@
       <c r="O77" t="n">
         <v>1</v>
       </c>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-      <c r="Z77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -7040,7 +6359,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr"/>
       <c r="N78" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7049,17 +6367,6 @@
       <c r="O78" t="n">
         <v>1</v>
       </c>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-      <c r="Z78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -7112,7 +6419,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr"/>
       <c r="N79" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7121,17 +6427,6 @@
       <c r="O79" t="n">
         <v>1</v>
       </c>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-      <c r="Z79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7184,7 +6479,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr"/>
       <c r="N80" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7193,17 +6487,6 @@
       <c r="O80" t="n">
         <v>1</v>
       </c>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-      <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-      <c r="Z80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7256,7 +6539,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7265,17 +6547,6 @@
       <c r="O81" t="n">
         <v>1</v>
       </c>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-      <c r="Z81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7328,7 +6599,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr"/>
       <c r="N82" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7337,17 +6607,6 @@
       <c r="O82" t="n">
         <v>1</v>
       </c>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7400,7 +6659,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr"/>
       <c r="N83" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7409,17 +6667,6 @@
       <c r="O83" t="n">
         <v>1</v>
       </c>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-      <c r="Z83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7472,7 +6719,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
       <c r="N84" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7481,17 +6727,6 @@
       <c r="O84" t="n">
         <v>1</v>
       </c>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7544,7 +6779,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr"/>
       <c r="N85" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7553,17 +6787,6 @@
       <c r="O85" t="n">
         <v>1</v>
       </c>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr"/>
-      <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-      <c r="Z85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7616,7 +6839,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7625,17 +6847,6 @@
       <c r="O86" t="n">
         <v>1</v>
       </c>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-      <c r="Z86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7688,7 +6899,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
       <c r="N87" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7697,17 +6907,6 @@
       <c r="O87" t="n">
         <v>1</v>
       </c>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-      <c r="Z87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7760,7 +6959,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr"/>
       <c r="N88" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7769,17 +6967,6 @@
       <c r="O88" t="n">
         <v>1</v>
       </c>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-      <c r="Z88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7832,7 +7019,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr"/>
       <c r="N89" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7841,17 +7027,6 @@
       <c r="O89" t="n">
         <v>1</v>
       </c>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-      <c r="Z89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7904,7 +7079,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr"/>
       <c r="N90" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7913,17 +7087,6 @@
       <c r="O90" t="n">
         <v>1</v>
       </c>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr"/>
-      <c r="U90" t="inlineStr"/>
-      <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr"/>
-      <c r="Z90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7976,7 +7139,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -7985,17 +7147,6 @@
       <c r="O91" t="n">
         <v>1</v>
       </c>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
-      <c r="Z91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8048,7 +7199,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8057,17 +7207,6 @@
       <c r="O92" t="n">
         <v>1</v>
       </c>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
-      <c r="Z92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8120,7 +7259,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8129,17 +7267,6 @@
       <c r="O93" t="n">
         <v>1</v>
       </c>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
-      <c r="Z93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8192,7 +7319,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8201,17 +7327,6 @@
       <c r="O94" t="n">
         <v>1</v>
       </c>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
-      <c r="Z94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8264,7 +7379,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr"/>
       <c r="N95" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8273,17 +7387,6 @@
       <c r="O95" t="n">
         <v>1</v>
       </c>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
-      <c r="T95" t="inlineStr"/>
-      <c r="U95" t="inlineStr"/>
-      <c r="V95" t="inlineStr"/>
-      <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr"/>
-      <c r="Z95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8336,7 +7439,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8345,17 +7447,6 @@
       <c r="O96" t="n">
         <v>1</v>
       </c>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
-      <c r="Z96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8408,7 +7499,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr"/>
       <c r="N97" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8417,17 +7507,6 @@
       <c r="O97" t="n">
         <v>1</v>
       </c>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
-      <c r="Z97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8480,7 +7559,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8489,17 +7567,6 @@
       <c r="O98" t="n">
         <v>1</v>
       </c>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
-      <c r="Z98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8552,7 +7619,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8561,17 +7627,6 @@
       <c r="O99" t="n">
         <v>1</v>
       </c>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8624,7 +7679,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8633,17 +7687,6 @@
       <c r="O100" t="n">
         <v>1</v>
       </c>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="inlineStr"/>
-      <c r="T100" t="inlineStr"/>
-      <c r="U100" t="inlineStr"/>
-      <c r="V100" t="inlineStr"/>
-      <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr"/>
-      <c r="Z100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8696,7 +7739,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr"/>
       <c r="N101" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8705,17 +7747,6 @@
       <c r="O101" t="n">
         <v>1</v>
       </c>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
-      <c r="Z101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8768,7 +7799,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr"/>
       <c r="N102" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8777,17 +7807,6 @@
       <c r="O102" t="n">
         <v>1</v>
       </c>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
-      <c r="Z102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8840,7 +7859,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr"/>
       <c r="N103" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8849,17 +7867,6 @@
       <c r="O103" t="n">
         <v>1</v>
       </c>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
-      <c r="Z103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -8912,7 +7919,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr"/>
       <c r="N104" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8921,17 +7927,6 @@
       <c r="O104" t="n">
         <v>1</v>
       </c>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
-      <c r="Z104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -8984,7 +7979,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -8993,17 +7987,6 @@
       <c r="O105" t="n">
         <v>1</v>
       </c>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9056,7 +8039,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9065,17 +8047,6 @@
       <c r="O106" t="n">
         <v>1</v>
       </c>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9128,7 +8099,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M107" t="inlineStr"/>
       <c r="N107" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9137,17 +8107,6 @@
       <c r="O107" t="n">
         <v>1</v>
       </c>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
-      <c r="Z107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9200,7 +8159,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M108" t="inlineStr"/>
       <c r="N108" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9209,17 +8167,6 @@
       <c r="O108" t="n">
         <v>1</v>
       </c>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
-      <c r="Z108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9272,7 +8219,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9281,17 +8227,6 @@
       <c r="O109" t="n">
         <v>1</v>
       </c>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
-      <c r="Z109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9344,7 +8279,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9353,17 +8287,6 @@
       <c r="O110" t="n">
         <v>1</v>
       </c>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="inlineStr"/>
-      <c r="T110" t="inlineStr"/>
-      <c r="U110" t="inlineStr"/>
-      <c r="V110" t="inlineStr"/>
-      <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr"/>
-      <c r="Z110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9416,7 +8339,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9425,17 +8347,6 @@
       <c r="O111" t="n">
         <v>1</v>
       </c>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
-      <c r="Z111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9488,7 +8399,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9497,17 +8407,6 @@
       <c r="O112" t="n">
         <v>1</v>
       </c>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9560,7 +8459,6 @@
           <t>BATCH 1</t>
         </is>
       </c>
-      <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9569,17 +8467,6 @@
       <c r="O113" t="n">
         <v>1</v>
       </c>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9632,7 +8519,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9641,17 +8527,6 @@
       <c r="O114" t="n">
         <v>1</v>
       </c>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9685,7 +8560,6 @@
       <c r="G115" t="n">
         <v>2</v>
       </c>
-      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
         <v>1</v>
       </c>
@@ -9702,7 +8576,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9711,17 +8584,6 @@
       <c r="O115" t="n">
         <v>1</v>
       </c>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="inlineStr"/>
-      <c r="T115" t="inlineStr"/>
-      <c r="U115" t="inlineStr"/>
-      <c r="V115" t="inlineStr"/>
-      <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
-      <c r="Z115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9758,7 +8620,6 @@
       <c r="H116" t="n">
         <v>1</v>
       </c>
-      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr">
         <is>
           <t>Proposed Construction of Handwashing Facility for Elementary (Option 1A -with Roofing and with counter with tile finish)</t>
@@ -9772,7 +8633,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9781,17 +8641,6 @@
       <c r="O116" t="n">
         <v>1</v>
       </c>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
-      <c r="Z116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -9844,7 +8693,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9853,17 +8701,6 @@
       <c r="O117" t="n">
         <v>1</v>
       </c>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
-      <c r="Z117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -9897,7 +8734,6 @@
       <c r="G118" t="n">
         <v>2</v>
       </c>
-      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
         <v>1</v>
       </c>
@@ -9914,7 +8750,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9923,17 +8758,6 @@
       <c r="O118" t="n">
         <v>1</v>
       </c>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
-      <c r="Z118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -9986,7 +8810,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -9995,17 +8818,6 @@
       <c r="O119" t="n">
         <v>1</v>
       </c>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
-      <c r="Z119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10039,7 +8851,6 @@
       <c r="G120" t="n">
         <v>2</v>
       </c>
-      <c r="H120" t="inlineStr"/>
       <c r="I120" t="n">
         <v>1</v>
       </c>
@@ -10056,7 +8867,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10065,17 +8875,6 @@
       <c r="O120" t="n">
         <v>1</v>
       </c>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="inlineStr"/>
-      <c r="T120" t="inlineStr"/>
-      <c r="U120" t="inlineStr"/>
-      <c r="V120" t="inlineStr"/>
-      <c r="W120" t="inlineStr"/>
-      <c r="X120" t="inlineStr"/>
-      <c r="Y120" t="inlineStr"/>
-      <c r="Z120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10128,7 +8927,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10137,17 +8935,6 @@
       <c r="O121" t="n">
         <v>1</v>
       </c>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
-      <c r="T121" t="inlineStr"/>
-      <c r="U121" t="inlineStr"/>
-      <c r="V121" t="inlineStr"/>
-      <c r="W121" t="inlineStr"/>
-      <c r="X121" t="inlineStr"/>
-      <c r="Y121" t="inlineStr"/>
-      <c r="Z121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10200,7 +8987,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10209,17 +8995,6 @@
       <c r="O122" t="n">
         <v>1</v>
       </c>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
-      <c r="Z122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10272,7 +9047,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10281,17 +9055,6 @@
       <c r="O123" t="n">
         <v>1</v>
       </c>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
-      <c r="Z123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10344,7 +9107,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10353,17 +9115,6 @@
       <c r="O124" t="n">
         <v>1</v>
       </c>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
-      <c r="Z124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10416,7 +9167,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10425,17 +9175,6 @@
       <c r="O125" t="n">
         <v>1</v>
       </c>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="inlineStr"/>
-      <c r="T125" t="inlineStr"/>
-      <c r="U125" t="inlineStr"/>
-      <c r="V125" t="inlineStr"/>
-      <c r="W125" t="inlineStr"/>
-      <c r="X125" t="inlineStr"/>
-      <c r="Y125" t="inlineStr"/>
-      <c r="Z125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10469,7 +9208,6 @@
       <c r="G126" t="n">
         <v>2</v>
       </c>
-      <c r="H126" t="inlineStr"/>
       <c r="I126" t="n">
         <v>1</v>
       </c>
@@ -10486,7 +9224,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10495,17 +9232,6 @@
       <c r="O126" t="n">
         <v>1</v>
       </c>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
-      <c r="Z126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10558,7 +9284,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10567,17 +9292,6 @@
       <c r="O127" t="n">
         <v>1</v>
       </c>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
-      <c r="Z127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10611,7 +9325,6 @@
       <c r="G128" t="n">
         <v>2</v>
       </c>
-      <c r="H128" t="inlineStr"/>
       <c r="I128" t="n">
         <v>1</v>
       </c>
@@ -10628,7 +9341,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10637,17 +9349,6 @@
       <c r="O128" t="n">
         <v>1</v>
       </c>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
-      <c r="Z128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -10700,7 +9401,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10709,17 +9409,6 @@
       <c r="O129" t="n">
         <v>1</v>
       </c>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
-      <c r="Z129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -10753,7 +9442,6 @@
       <c r="G130" t="n">
         <v>2</v>
       </c>
-      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
         <v>1</v>
       </c>
@@ -10770,7 +9458,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10779,17 +9466,6 @@
       <c r="O130" t="n">
         <v>1</v>
       </c>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
-      <c r="T130" t="inlineStr"/>
-      <c r="U130" t="inlineStr"/>
-      <c r="V130" t="inlineStr"/>
-      <c r="W130" t="inlineStr"/>
-      <c r="X130" t="inlineStr"/>
-      <c r="Y130" t="inlineStr"/>
-      <c r="Z130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -10842,7 +9518,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10851,17 +9526,6 @@
       <c r="O131" t="n">
         <v>1</v>
       </c>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
-      <c r="Z131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -10914,7 +9578,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10923,17 +9586,6 @@
       <c r="O132" t="n">
         <v>1</v>
       </c>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
-      <c r="Z132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -10967,7 +9619,6 @@
       <c r="G133" t="n">
         <v>2</v>
       </c>
-      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
         <v>1</v>
       </c>
@@ -10984,7 +9635,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -10993,17 +9643,6 @@
       <c r="O133" t="n">
         <v>1</v>
       </c>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
-      <c r="Z133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11056,7 +9695,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11065,17 +9703,6 @@
       <c r="O134" t="n">
         <v>1</v>
       </c>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
-      <c r="Z134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11128,7 +9755,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11137,17 +9763,6 @@
       <c r="O135" t="n">
         <v>1</v>
       </c>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
-      <c r="T135" t="inlineStr"/>
-      <c r="U135" t="inlineStr"/>
-      <c r="V135" t="inlineStr"/>
-      <c r="W135" t="inlineStr"/>
-      <c r="X135" t="inlineStr"/>
-      <c r="Y135" t="inlineStr"/>
-      <c r="Z135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11181,7 +9796,6 @@
       <c r="G136" t="n">
         <v>2</v>
       </c>
-      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
         <v>1</v>
       </c>
@@ -11198,7 +9812,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11207,17 +9820,6 @@
       <c r="O136" t="n">
         <v>1</v>
       </c>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11270,7 +9872,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11279,17 +9880,6 @@
       <c r="O137" t="n">
         <v>1</v>
       </c>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
-      <c r="Z137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11342,7 +9932,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11351,17 +9940,6 @@
       <c r="O138" t="n">
         <v>1</v>
       </c>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
-      <c r="Z138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11395,7 +9973,6 @@
       <c r="G139" t="n">
         <v>2</v>
       </c>
-      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
         <v>1</v>
       </c>
@@ -11412,7 +9989,6 @@
           <t>BATCH 2</t>
         </is>
       </c>
-      <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr">
         <is>
           <t>Completed</t>
@@ -11421,17 +9997,79 @@
       <c r="O139" t="n">
         <v>1</v>
       </c>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
-      <c r="Z139" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="AA2:AA139" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Filtered_By_Region/CARAGA/CARAGA_HEALTH.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_HEALTH.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA139"/>
+  <dimension ref="A1:AF139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total Physical Target</t>
+          <t>TOTAL PHYSICAL TARGET</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Batch</t>
+          <t>BATCH</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
@@ -565,7 +565,32 @@
           <t>Other Remarks</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Reverted</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Not yet started</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Under Procurement</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites On Going</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>No. of Sites Completed</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -608,11 +633,6 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J2" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility for Elementary</t>
@@ -621,11 +641,6 @@
       <c r="K2" t="n">
         <v>332182.19</v>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M2" t="n">
         <v>327592.85</v>
       </c>
@@ -715,11 +730,6 @@
       <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -728,11 +738,6 @@
       <c r="K3" t="n">
         <v>3727536.02</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M3" t="n">
         <v>3141911.69</v>
       </c>
@@ -832,11 +837,6 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J4" t="inlineStr">
         <is>
           <t>Construction of Water System (Deep Well Design with Solar - Powered Submersible Water Pump)</t>
@@ -845,11 +845,6 @@
       <c r="K4" t="n">
         <v>1921578.86</v>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M4" t="n">
         <v>1830300.26</v>
       </c>
@@ -914,11 +909,6 @@
       <c r="H5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -927,11 +917,6 @@
       <c r="K5" t="n">
         <v>3727536.02</v>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1030,11 +1015,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J6" t="inlineStr">
         <is>
           <t>Construction of 2 Units Group Handwashing Facility for Elementary</t>
@@ -1043,11 +1023,6 @@
       <c r="K6" t="n">
         <v>602766.77</v>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>completed</t>
@@ -1149,11 +1124,6 @@
       <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -1162,11 +1132,6 @@
       <c r="K7" t="n">
         <v>3823114.17</v>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M7" t="n">
         <v>2923591.71</v>
       </c>
@@ -1262,11 +1227,6 @@
       <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility</t>
@@ -1275,11 +1235,6 @@
       <c r="K8" t="n">
         <v>355236.65</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M8" t="n">
         <v>900590.6899999999</v>
       </c>
@@ -1379,11 +1334,6 @@
       <c r="H9" t="n">
         <v>1</v>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility</t>
@@ -1392,11 +1342,6 @@
       <c r="K9" t="n">
         <v>412704.93</v>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M9" t="n">
         <v>320750.32</v>
       </c>
@@ -1496,11 +1441,6 @@
       <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J10" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility</t>
@@ -1509,11 +1449,6 @@
       <c r="K10" t="n">
         <v>362304.93</v>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M10" t="n">
         <v>288158.47</v>
       </c>
@@ -1613,11 +1548,6 @@
       <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
           <t>Proposed Construction of Handwashing facility (option 1A with Roofing and with counter in tile finish)</t>
@@ -1626,11 +1556,6 @@
       <c r="K11" t="n">
         <v>300000</v>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M11" t="n">
         <v>295477.71</v>
       </c>
@@ -1730,11 +1655,6 @@
       <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>Proposed Construction of Handwashing facility (option 1A with Roofing and with counter in tile finish)</t>
@@ -1743,11 +1663,6 @@
       <c r="K12" t="n">
         <v>300000</v>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M12" t="n">
         <v>295477.71</v>
       </c>
@@ -1847,11 +1762,6 @@
       <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>Proposed Construction of Handwashing facility (option 1A with Roofing and with counter in tile finish)</t>
@@ -1860,11 +1770,6 @@
       <c r="K13" t="n">
         <v>300000</v>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M13" t="n">
         <v>295477.71</v>
       </c>
@@ -1964,11 +1869,6 @@
       <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J14" t="inlineStr">
         <is>
           <t>Proposed Construction of Handwashing facility (option 1A with Roofing and with counter in tile finish)</t>
@@ -1977,11 +1877,6 @@
       <c r="K14" t="n">
         <v>300000</v>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M14" t="n">
         <v>295477.71</v>
       </c>
@@ -2081,11 +1976,6 @@
       <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>Water and Sanitation Facilities - 4-Seater</t>
@@ -2094,11 +1984,6 @@
       <c r="K15" t="n">
         <v>1125598.1</v>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M15" t="n">
         <v>961297.61</v>
       </c>
@@ -2200,11 +2085,6 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
           <t>Construction of Water System (Deep Well Design with Solar - Powered Submersible Water Pump)</t>
@@ -2213,11 +2093,6 @@
       <c r="K16" t="n">
         <v>2226633.74</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M16" t="n">
         <v>1994244.69</v>
       </c>
@@ -2322,11 +2197,6 @@
       <c r="H17" t="n">
         <v>1</v>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
           <t>Construction of Toilets</t>
@@ -2335,11 +2205,6 @@
       <c r="K17" t="n">
         <v>1001168.65</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M17" t="n">
         <v>998235.23</v>
       </c>
@@ -2441,11 +2306,6 @@
           <t>2nd</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
           <t>Construction of Water System</t>
@@ -2454,11 +2314,6 @@
       <c r="K18" t="n">
         <v>2084603.55</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M18" t="n">
         <v>2081581.6</v>
       </c>
@@ -2563,11 +2418,6 @@
       <c r="H19" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
           <t>Construction of School Clinic</t>
@@ -2576,11 +2426,6 @@
       <c r="K19" t="n">
         <v>3349173.05</v>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M19" t="n">
         <v>2536593.52</v>
       </c>
@@ -2685,11 +2530,6 @@
       <c r="H20" t="n">
         <v>1</v>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J20" t="inlineStr">
         <is>
           <t>Construction of Water and Sanitation Facilities - Four (4) Seater</t>
@@ -2698,11 +2538,6 @@
       <c r="K20" t="n">
         <v>1073605.29</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M20" t="n">
         <v>2634115.51</v>
       </c>
@@ -2804,11 +2639,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
           <t>Construction of Group Handwashing Facility - For Elementary (Option 1A - with Roofing, with Counter, with Tile Finish</t>
@@ -2817,11 +2647,6 @@
       <c r="K21" t="n">
         <v>352744.25</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M21" t="n">
         <v>259813.99</v>
       </c>
@@ -2923,11 +2748,6 @@
           <t>1st</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="J22" t="inlineStr">
         <is>
           <t>Construction of One (1) Unit One (1) Storey School Clinic</t>
@@ -2936,11 +2756,6 @@
       <c r="K22" t="n">
         <v>3669893.83</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
       <c r="M22" t="n">
         <v>2634115.51</v>
       </c>
@@ -10000,7 +9815,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AA2:AA139" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF139" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>

--- a/Filtered_By_Region/CARAGA/CARAGA_HEALTH.xlsx
+++ b/Filtered_By_Region/CARAGA/CARAGA_HEALTH.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>REGION</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
